--- a/Code/Results/Cases/Case_2_161/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_161/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.384804094828496</v>
+        <v>0.8028798507536976</v>
       </c>
       <c r="C2">
-        <v>0.5627232356545733</v>
+        <v>0.1892926474504861</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3363936216003509</v>
+        <v>0.5136124957476795</v>
       </c>
       <c r="F2">
-        <v>1.282512197705927</v>
+        <v>1.949043443498852</v>
       </c>
       <c r="G2">
-        <v>0.0007876378432856993</v>
+        <v>0.002407936862410621</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01824812019895283</v>
+        <v>0.03392508486171053</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.045267920402509</v>
+        <v>0.573804906084554</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9910020078592936</v>
+        <v>1.88418337364368</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.07551973184593</v>
+        <v>0.7057052289942476</v>
       </c>
       <c r="C3">
-        <v>0.4975599879698507</v>
+        <v>0.1677811970580194</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3075310176591373</v>
+        <v>0.5088575932777246</v>
       </c>
       <c r="F3">
-        <v>1.188963091074754</v>
+        <v>1.944057408184634</v>
       </c>
       <c r="G3">
-        <v>0.0007921144426587977</v>
+        <v>0.002410781839193269</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01908521495697713</v>
+        <v>0.03437957001682435</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9101165372932414</v>
+        <v>0.5351438526236123</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9664981593611799</v>
+        <v>1.906550414271592</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.885967275054242</v>
+        <v>0.6459099745758863</v>
       </c>
       <c r="C4">
-        <v>0.4575800915476407</v>
+        <v>0.1545129747835574</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2901884174875562</v>
+        <v>0.5061439439186799</v>
       </c>
       <c r="F4">
-        <v>1.134373146803767</v>
+        <v>1.942305317627927</v>
       </c>
       <c r="G4">
-        <v>0.0007949452742676463</v>
+        <v>0.00241262027346376</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01964673750484636</v>
+        <v>0.0346803107751299</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8275432346746143</v>
+        <v>0.5115171036108208</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9560674035004411</v>
+        <v>1.922159333167841</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.808777650446103</v>
+        <v>0.6215115727715954</v>
       </c>
       <c r="C5">
-        <v>0.4412895992859376</v>
+        <v>0.1490912833723428</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2832094290263925</v>
+        <v>0.5050899413793815</v>
       </c>
       <c r="F5">
-        <v>1.112795666241269</v>
+        <v>1.941920121427032</v>
       </c>
       <c r="G5">
-        <v>0.000796120041997229</v>
+        <v>0.002413392555926098</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01988708171828257</v>
+        <v>0.03480831920645855</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7939794574998871</v>
+        <v>0.5019174584617687</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9529061289614305</v>
+        <v>1.928990246737342</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.795962736570601</v>
+        <v>0.617458380412927</v>
       </c>
       <c r="C6">
-        <v>0.4385845063953582</v>
+        <v>0.1481901326066861</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2820557053534714</v>
+        <v>0.5049180573982213</v>
       </c>
       <c r="F6">
-        <v>1.10925175353178</v>
+        <v>1.941876005079678</v>
       </c>
       <c r="G6">
-        <v>0.0007963164051411889</v>
+        <v>0.002413522190349779</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01992767420975738</v>
+        <v>0.03482990436524247</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7884108894562587</v>
+        <v>0.5003251765225087</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9524449928822634</v>
+        <v>1.930152868283358</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.884926090305981</v>
+        <v>0.645581054461843</v>
       </c>
       <c r="C7">
-        <v>0.4573603932981314</v>
+        <v>0.154439915370773</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2900939480809299</v>
+        <v>0.5061295193258815</v>
       </c>
       <c r="F7">
-        <v>1.134079500826431</v>
+        <v>1.94229879206415</v>
       </c>
       <c r="G7">
-        <v>0.0007949610311626998</v>
+        <v>0.002412630595093433</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01964993278553173</v>
+        <v>0.03468201505666002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.827090258054838</v>
+        <v>0.5113875236429593</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9560204497518612</v>
+        <v>1.92224955555848</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.278069459238395</v>
+        <v>0.7694016642230395</v>
       </c>
       <c r="C8">
-        <v>0.540244787725868</v>
+        <v>0.1818881647349428</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3263586951947133</v>
+        <v>0.5119303089906992</v>
       </c>
       <c r="F8">
-        <v>1.249635122103342</v>
+        <v>1.947052221501309</v>
       </c>
       <c r="G8">
-        <v>0.0007891646375164202</v>
+        <v>0.002408898839725395</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01852661185862381</v>
+        <v>0.03407729132948134</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9985715694704993</v>
+        <v>0.5604517382455469</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.98155125896578</v>
+        <v>1.89150540523643</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.053455460282066</v>
+        <v>1.01114229279176</v>
       </c>
       <c r="C9">
-        <v>0.7033289076593405</v>
+        <v>0.2352253623486433</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4008281217818279</v>
+        <v>0.524937647235781</v>
       </c>
       <c r="F9">
-        <v>1.501182480292698</v>
+        <v>1.9667867988654</v>
       </c>
       <c r="G9">
-        <v>0.0007784250787277028</v>
+        <v>0.002402304527842885</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.016722124803767</v>
+        <v>0.03306344278396978</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.338973265669466</v>
+        <v>0.6575345969959585</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.071652672727936</v>
+        <v>1.846163049023119</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.628390487012382</v>
+        <v>1.188057138679198</v>
       </c>
       <c r="C10">
-        <v>0.8239555493272519</v>
+        <v>0.2741023260790882</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4581097790697441</v>
+        <v>0.5354886502608451</v>
       </c>
       <c r="F10">
-        <v>1.704705173404463</v>
+        <v>1.98767219420526</v>
       </c>
       <c r="G10">
-        <v>0.0007708797503179438</v>
+        <v>0.002397896327370333</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01567096177251237</v>
+        <v>0.03242337738478618</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.592918412759815</v>
+        <v>0.7293782204537109</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.167366658544069</v>
+        <v>1.822053892362703</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.891713576475695</v>
+        <v>1.268383135648833</v>
       </c>
       <c r="C11">
-        <v>0.8791249418628411</v>
+        <v>0.2917189625557057</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4848546314564928</v>
+        <v>0.5405045670952191</v>
       </c>
       <c r="F11">
-        <v>1.80220896191139</v>
+        <v>1.99856883086953</v>
       </c>
       <c r="G11">
-        <v>0.0007675131365748254</v>
+        <v>0.00239598477268993</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01526018797150108</v>
+        <v>0.03215494660122786</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.709608727953281</v>
+        <v>0.7621719206449313</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.218559440896257</v>
+        <v>1.813104335041373</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.991739995112653</v>
+        <v>1.298777482549156</v>
       </c>
       <c r="C12">
-        <v>0.9000692851570307</v>
+        <v>0.2983797830935089</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4950926785981125</v>
+        <v>0.5424350263513773</v>
       </c>
       <c r="F12">
-        <v>1.839916532177213</v>
+        <v>2.002896412550356</v>
       </c>
       <c r="G12">
-        <v>0.0007662469463849826</v>
+        <v>0.002395274326181346</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01511505542135794</v>
+        <v>0.03205656878652796</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.753994052021156</v>
+        <v>0.774605766017018</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.239158788957496</v>
+        <v>1.810007127979048</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.970182718018862</v>
+        <v>1.292232575766604</v>
       </c>
       <c r="C13">
-        <v>0.8955560180778832</v>
+        <v>0.296945715992365</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4928826289841979</v>
+        <v>0.5420178876749233</v>
       </c>
       <c r="F13">
-        <v>1.831759311686127</v>
+        <v>2.001955430422285</v>
       </c>
       <c r="G13">
-        <v>0.0007665192705802547</v>
+        <v>0.002395426737799764</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01514583666076064</v>
+        <v>0.0320776107017835</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.744425614833233</v>
+        <v>0.7719272294131798</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.234666456507796</v>
+        <v>1.81066116320369</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.899936228367494</v>
+        <v>1.27088417250269</v>
       </c>
       <c r="C14">
-        <v>0.8808469226738964</v>
+        <v>0.2922671589707306</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4856946402879316</v>
+        <v>0.5406627653303389</v>
       </c>
       <c r="F14">
-        <v>1.805294985552749</v>
+        <v>1.998920826864321</v>
       </c>
       <c r="G14">
-        <v>0.0007674087971969534</v>
+        <v>0.002395926055161156</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0152480346270174</v>
+        <v>0.03214678743310273</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.713256206411003</v>
+        <v>0.7631945509897378</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.220229151302362</v>
+        <v>1.81284366856346</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.856950544700226</v>
+        <v>1.257804578048081</v>
       </c>
       <c r="C15">
-        <v>0.8718443894923098</v>
+        <v>0.2894000670969774</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4813065211329786</v>
+        <v>0.5398367546583032</v>
       </c>
       <c r="F15">
-        <v>1.789189468197819</v>
+        <v>1.997088271208156</v>
       </c>
       <c r="G15">
-        <v>0.0007679547630575972</v>
+        <v>0.002396233647090622</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01531201333011367</v>
+        <v>0.03218958621586765</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.694190637507205</v>
+        <v>0.7578475486205889</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.211547485878754</v>
+        <v>1.814218565083792</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.611222189798411</v>
+        <v>1.182804446600755</v>
       </c>
       <c r="C16">
-        <v>0.820356914668821</v>
+        <v>0.272949626076894</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4563767303164354</v>
+        <v>0.5351651946905136</v>
       </c>
       <c r="F16">
-        <v>1.698438549222686</v>
+        <v>1.986988206953598</v>
       </c>
       <c r="G16">
-        <v>0.0007711010245047426</v>
+        <v>0.002398023133053048</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01569922370434718</v>
+        <v>0.03244137763097577</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.585318383727355</v>
+        <v>0.7272372813997805</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.164184540297725</v>
+        <v>1.822679510588358</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.460970149996115</v>
+        <v>1.136754062699765</v>
       </c>
       <c r="C17">
-        <v>0.788853833070533</v>
+        <v>0.2628399769207022</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4412669961507234</v>
+        <v>0.5323546847746172</v>
       </c>
       <c r="F17">
-        <v>1.644079026443592</v>
+        <v>1.981150026588537</v>
       </c>
       <c r="G17">
-        <v>0.0007730474645674261</v>
+        <v>0.002399144892346165</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01595452459213575</v>
+        <v>0.03260166821590893</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.518848169290195</v>
+        <v>0.7084871362073102</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.137166428885848</v>
+        <v>1.828388003574929</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.374713303901785</v>
+        <v>1.110252732586105</v>
       </c>
       <c r="C18">
-        <v>0.7707612525408649</v>
+        <v>0.2570187287611532</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4326402038050006</v>
+        <v>0.530758507723057</v>
       </c>
       <c r="F18">
-        <v>1.613270966138089</v>
+        <v>1.977923402632243</v>
       </c>
       <c r="G18">
-        <v>0.0007741732490868431</v>
+        <v>0.002399798927587656</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01610766420079202</v>
+        <v>0.03269600324994038</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.480724438789466</v>
+        <v>0.6977130881347335</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.122339226313443</v>
+        <v>1.831861206786499</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.345534803744215</v>
+        <v>1.101277409815452</v>
       </c>
       <c r="C19">
-        <v>0.7646397800104694</v>
+        <v>0.2550466575984842</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4297299646145163</v>
+        <v>0.5302215669683008</v>
       </c>
       <c r="F19">
-        <v>1.602916313755287</v>
+        <v>1.97685346467027</v>
       </c>
       <c r="G19">
-        <v>0.0007745555157270833</v>
+        <v>0.002400021890828008</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01616057516669933</v>
+        <v>0.03272831100210283</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.467834134635751</v>
+        <v>0.6940670053507461</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.117438133476782</v>
+        <v>1.833069727144419</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.476947361420628</v>
+        <v>1.14165770110219</v>
       </c>
       <c r="C20">
-        <v>0.7922045070477282</v>
+        <v>0.2639168358819575</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4428687565996299</v>
+        <v>0.5326517621697207</v>
       </c>
       <c r="F20">
-        <v>1.649817739196834</v>
+        <v>1.981757913345604</v>
       </c>
       <c r="G20">
-        <v>0.0007728396220577638</v>
+        <v>0.002399024565853565</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0159266905855997</v>
+        <v>0.0325843835042221</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.525912638659747</v>
+        <v>0.7104820338388862</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.139967980008322</v>
+        <v>1.827760666289123</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.920560399778651</v>
+        <v>1.277155360411825</v>
       </c>
       <c r="C21">
-        <v>0.8851658175705097</v>
+        <v>0.2936416445586758</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.487802834687912</v>
+        <v>0.541059955582412</v>
       </c>
       <c r="F21">
-        <v>1.81304624333761</v>
+        <v>1.999806696892733</v>
       </c>
       <c r="G21">
-        <v>0.0007671472929556541</v>
+        <v>0.00239577902983915</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01521772772947116</v>
+        <v>0.03212637976192667</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.72240581943521</v>
+        <v>0.7657591311773047</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.224435843797778</v>
+        <v>1.812194681547936</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.212333287501792</v>
+        <v>1.36557413504039</v>
       </c>
       <c r="C22">
-        <v>0.9462352366329867</v>
+        <v>0.3130088164789981</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5178191997332604</v>
+        <v>0.5467361005835727</v>
       </c>
       <c r="F22">
-        <v>1.924342136719531</v>
+        <v>2.012775985482207</v>
       </c>
       <c r="G22">
-        <v>0.0007634771691367579</v>
+        <v>0.002393736064394901</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01481549382834935</v>
+        <v>0.03184611507586332</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.851990552947612</v>
+        <v>0.801976521579931</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.286775126774785</v>
+        <v>1.803722978724949</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.056420045622701</v>
+        <v>1.31839631076565</v>
       </c>
       <c r="C23">
-        <v>0.913608936399072</v>
+        <v>0.3026777667369913</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5017353926655517</v>
+        <v>0.5436900988525863</v>
       </c>
       <c r="F23">
-        <v>1.864491573564919</v>
+        <v>2.005746486330693</v>
       </c>
       <c r="G23">
-        <v>0.000765431672604913</v>
+        <v>0.002394819301262959</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01502432384013552</v>
+        <v>0.03199395245387926</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.782711824981718</v>
+        <v>0.7826384834946509</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.252810543550595</v>
+        <v>1.808088252525692</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.469723678749006</v>
+        <v>1.139440848167055</v>
       </c>
       <c r="C24">
-        <v>0.7906896090556188</v>
+        <v>0.2634300161944907</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4421444146891176</v>
+        <v>0.5325173923526663</v>
       </c>
       <c r="F24">
-        <v>1.64722189011863</v>
+        <v>1.981482683386048</v>
       </c>
       <c r="G24">
-        <v>0.0007729335665843294</v>
+        <v>0.002399078937053293</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01593925457238754</v>
+        <v>0.03259219112588063</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.522718511148739</v>
+        <v>0.7095801229554866</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.138699208573598</v>
+        <v>1.828043689655402</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.842967328220595</v>
+        <v>0.9458638229712619</v>
       </c>
       <c r="C25">
-        <v>0.6591051908795578</v>
+        <v>0.2208498121540288</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3802714939725931</v>
+        <v>0.5212441459287334</v>
       </c>
       <c r="F25">
-        <v>1.430116581705889</v>
+        <v>1.960329322434745</v>
       </c>
       <c r="G25">
-        <v>0.0007812669682175854</v>
+        <v>0.00240401146087202</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01716452669453794</v>
+        <v>0.03331930693701857</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.246312410998272</v>
+        <v>0.6311794773176302</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.042487964006938</v>
+        <v>1.856819688444347</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_161/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_161/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8028798507536976</v>
+        <v>2.384804094828496</v>
       </c>
       <c r="C2">
-        <v>0.1892926474504861</v>
+        <v>0.5627232356548575</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5136124957476795</v>
+        <v>0.3363936216003722</v>
       </c>
       <c r="F2">
-        <v>1.949043443498852</v>
+        <v>1.282512197705927</v>
       </c>
       <c r="G2">
-        <v>0.002407936862410621</v>
+        <v>0.0007876378432667716</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03392508486171053</v>
+        <v>0.01824812019895106</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.573804906084554</v>
+        <v>1.045267920402502</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.88418337364368</v>
+        <v>0.9910020078592936</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7057052289942476</v>
+        <v>2.0755197318461</v>
       </c>
       <c r="C3">
-        <v>0.1677811970580194</v>
+        <v>0.4975599879701349</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5088575932777246</v>
+        <v>0.3075310176591586</v>
       </c>
       <c r="F3">
-        <v>1.944057408184634</v>
+        <v>1.188963091074754</v>
       </c>
       <c r="G3">
-        <v>0.002410781839193269</v>
+        <v>0.0007921144426594643</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03437957001682435</v>
+        <v>0.01908521495700022</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5351438526236123</v>
+        <v>0.9101165372932414</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.906550414271592</v>
+        <v>0.9664981593611941</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6459099745758863</v>
+        <v>1.885967275054327</v>
       </c>
       <c r="C4">
-        <v>0.1545129747835574</v>
+        <v>0.4575800915481238</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5061439439186799</v>
+        <v>0.2901884174875207</v>
       </c>
       <c r="F4">
-        <v>1.942305317627927</v>
+        <v>1.134373146803767</v>
       </c>
       <c r="G4">
-        <v>0.00241262027346376</v>
+        <v>0.0007949452743241658</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0346803107751299</v>
+        <v>0.01964673750483392</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5115171036108208</v>
+        <v>0.8275432346746214</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.922159333167841</v>
+        <v>0.9560674035005121</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6215115727715954</v>
+        <v>1.808777650446274</v>
       </c>
       <c r="C5">
-        <v>0.1490912833723428</v>
+        <v>0.4412895992859376</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5050899413793815</v>
+        <v>0.2832094290263711</v>
       </c>
       <c r="F5">
-        <v>1.941920121427032</v>
+        <v>1.112795666241269</v>
       </c>
       <c r="G5">
-        <v>0.002413392555926098</v>
+        <v>0.000796120041998416</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03480831920645855</v>
+        <v>0.01988708171819376</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5019174584617687</v>
+        <v>0.79397945749988</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.928990246737342</v>
+        <v>0.9529061289613594</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.617458380412927</v>
+        <v>1.795962736570743</v>
       </c>
       <c r="C6">
-        <v>0.1481901326066861</v>
+        <v>0.4385845063953866</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5049180573982213</v>
+        <v>0.2820557053534642</v>
       </c>
       <c r="F6">
-        <v>1.941876005079678</v>
+        <v>1.109251753531794</v>
       </c>
       <c r="G6">
-        <v>0.002413522190349779</v>
+        <v>0.0007963164050983682</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03482990436524247</v>
+        <v>0.01992767420983377</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5003251765225087</v>
+        <v>0.7884108894562658</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.930152868283358</v>
+        <v>0.9524449928822776</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.645581054461843</v>
+        <v>1.884926090306095</v>
       </c>
       <c r="C7">
-        <v>0.154439915370773</v>
+        <v>0.4573603932983303</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5061295193258815</v>
+        <v>0.290093948080937</v>
       </c>
       <c r="F7">
-        <v>1.94229879206415</v>
+        <v>1.134079500826445</v>
       </c>
       <c r="G7">
-        <v>0.002412630595093433</v>
+        <v>0.0007949610311617619</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03468201505666002</v>
+        <v>0.01964993278552996</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5113875236429593</v>
+        <v>0.8270902580548452</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.92224955555848</v>
+        <v>0.9560204497519607</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7694016642230395</v>
+        <v>2.278069459238338</v>
       </c>
       <c r="C8">
-        <v>0.1818881647349428</v>
+        <v>0.5402447877259249</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5119303089906992</v>
+        <v>0.3263586951947275</v>
       </c>
       <c r="F8">
-        <v>1.947052221501309</v>
+        <v>1.249635122103371</v>
       </c>
       <c r="G8">
-        <v>0.002408898839725395</v>
+        <v>0.0007891646375899527</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03407729132948134</v>
+        <v>0.01852661185861137</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5604517382455469</v>
+        <v>0.9985715694704922</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.89150540523643</v>
+        <v>0.9815512589658226</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.01114229279176</v>
+        <v>3.053455460282009</v>
       </c>
       <c r="C9">
-        <v>0.2352253623486433</v>
+        <v>0.7033289076592268</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.524937647235781</v>
+        <v>0.4008281217818066</v>
       </c>
       <c r="F9">
-        <v>1.9667867988654</v>
+        <v>1.501182480292698</v>
       </c>
       <c r="G9">
-        <v>0.002402304527842885</v>
+        <v>0.0007784250787486128</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03306344278396978</v>
+        <v>0.0167221248037297</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6575345969959585</v>
+        <v>1.338973265669466</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.846163049023119</v>
+        <v>1.071652672727964</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.188057138679198</v>
+        <v>3.628390487012382</v>
       </c>
       <c r="C10">
-        <v>0.2741023260790882</v>
+        <v>0.8239555493271666</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5354886502608451</v>
+        <v>0.458109779069737</v>
       </c>
       <c r="F10">
-        <v>1.98767219420526</v>
+        <v>1.704705173404449</v>
       </c>
       <c r="G10">
-        <v>0.002397896327370333</v>
+        <v>0.0007708797502031794</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03242337738478618</v>
+        <v>0.01567096177246974</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7293782204537109</v>
+        <v>1.592918412759772</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.822053892362703</v>
+        <v>1.167366658544069</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.268383135648833</v>
+        <v>3.891713576475638</v>
       </c>
       <c r="C11">
-        <v>0.2917189625557057</v>
+        <v>0.8791249418628411</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5405045670952191</v>
+        <v>0.4848546314565141</v>
       </c>
       <c r="F11">
-        <v>1.99856883086953</v>
+        <v>1.80220896191139</v>
       </c>
       <c r="G11">
-        <v>0.00239598477268993</v>
+        <v>0.0007675131365178587</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03215494660122786</v>
+        <v>0.01526018797144779</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7621719206449313</v>
+        <v>1.709608727953267</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.813104335041373</v>
+        <v>1.218559440896314</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.298777482549156</v>
+        <v>3.991739995112709</v>
       </c>
       <c r="C12">
-        <v>0.2983797830935089</v>
+        <v>0.9000692851567464</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5424350263513773</v>
+        <v>0.4950926785981054</v>
       </c>
       <c r="F12">
-        <v>2.002896412550356</v>
+        <v>1.839916532177241</v>
       </c>
       <c r="G12">
-        <v>0.002395274326181346</v>
+        <v>0.0007662469464351376</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03205656878652796</v>
+        <v>0.01511505542129754</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.774605766017018</v>
+        <v>1.753994052021113</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.810007127979048</v>
+        <v>1.239158788957553</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.292232575766604</v>
+        <v>3.970182718018634</v>
       </c>
       <c r="C13">
-        <v>0.296945715992365</v>
+        <v>0.8955560180776558</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5420178876749233</v>
+        <v>0.4928826289842192</v>
       </c>
       <c r="F13">
-        <v>2.001955430422285</v>
+        <v>1.831759311686127</v>
       </c>
       <c r="G13">
-        <v>0.002395426737799764</v>
+        <v>0.0007665192705745371</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0320776107017835</v>
+        <v>0.01514583666077662</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7719272294131798</v>
+        <v>1.744425614833276</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.81066116320369</v>
+        <v>1.234666456507824</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.27088417250269</v>
+        <v>3.899936228367494</v>
       </c>
       <c r="C14">
-        <v>0.2922671589707306</v>
+        <v>0.8808469226739248</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5406627653303389</v>
+        <v>0.485694640287953</v>
       </c>
       <c r="F14">
-        <v>1.998920826864321</v>
+        <v>1.805294985552749</v>
       </c>
       <c r="G14">
-        <v>0.002395926055161156</v>
+        <v>0.0007674087972313577</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03214678743310273</v>
+        <v>0.01524803462705115</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7631945509897378</v>
+        <v>1.713256206411046</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.81284366856346</v>
+        <v>1.220229151302419</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.257804578048081</v>
+        <v>3.856950544700226</v>
       </c>
       <c r="C15">
-        <v>0.2894000670969774</v>
+        <v>0.8718443894920824</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5398367546583032</v>
+        <v>0.4813065211329857</v>
       </c>
       <c r="F15">
-        <v>1.997088271208156</v>
+        <v>1.789189468197833</v>
       </c>
       <c r="G15">
-        <v>0.002396233647090622</v>
+        <v>0.0007679547629788187</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03218958621586765</v>
+        <v>0.01531201333005505</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7578475486205889</v>
+        <v>1.694190637507191</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.814218565083792</v>
+        <v>1.211547485878782</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.182804446600755</v>
+        <v>3.611222189798468</v>
       </c>
       <c r="C16">
-        <v>0.272949626076894</v>
+        <v>0.820356914668821</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5351651946905136</v>
+        <v>0.4563767303164425</v>
       </c>
       <c r="F16">
-        <v>1.986988206953598</v>
+        <v>1.698438549222701</v>
       </c>
       <c r="G16">
-        <v>0.002398023133053048</v>
+        <v>0.0007711010244477679</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03244137763097577</v>
+        <v>0.01569922370439336</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7272372813997805</v>
+        <v>1.585318383727355</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.822679510588358</v>
+        <v>1.164184540297754</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.136754062699765</v>
+        <v>3.460970149996115</v>
       </c>
       <c r="C17">
-        <v>0.2628399769207022</v>
+        <v>0.788853833070533</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5323546847746172</v>
+        <v>0.4412669961507234</v>
       </c>
       <c r="F17">
-        <v>1.981150026588537</v>
+        <v>1.64407902644362</v>
       </c>
       <c r="G17">
-        <v>0.002399144892346165</v>
+        <v>0.000773047464608656</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03260166821590893</v>
+        <v>0.01595452459207536</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7084871362073102</v>
+        <v>1.518848169290195</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.828388003574929</v>
+        <v>1.137166428885877</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.110252732586105</v>
+        <v>3.374713303901785</v>
       </c>
       <c r="C18">
-        <v>0.2570187287611532</v>
+        <v>0.770761252541007</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.530758507723057</v>
+        <v>0.4326402038050077</v>
       </c>
       <c r="F18">
-        <v>1.977923402632243</v>
+        <v>1.613270966138103</v>
       </c>
       <c r="G18">
-        <v>0.002399798927587656</v>
+        <v>0.000774173249087553</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03269600324994038</v>
+        <v>0.01610766420079202</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6977130881347335</v>
+        <v>1.48072443878948</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.831861206786499</v>
+        <v>1.122339226313443</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.101277409815452</v>
+        <v>3.345534803744215</v>
       </c>
       <c r="C19">
-        <v>0.2550466575984842</v>
+        <v>0.7646397800106968</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5302215669683008</v>
+        <v>0.4297299646144879</v>
       </c>
       <c r="F19">
-        <v>1.97685346467027</v>
+        <v>1.602916313755273</v>
       </c>
       <c r="G19">
-        <v>0.002400021890828008</v>
+        <v>0.0007745555157072313</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03272831100210283</v>
+        <v>0.0161605751667615</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6940670053507461</v>
+        <v>1.467834134635709</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.833069727144419</v>
+        <v>1.117438133476696</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.14165770110219</v>
+        <v>3.476947361420457</v>
       </c>
       <c r="C20">
-        <v>0.2639168358819575</v>
+        <v>0.7922045070477282</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5326517621697207</v>
+        <v>0.4428687565996228</v>
       </c>
       <c r="F20">
-        <v>1.981757913345604</v>
+        <v>1.649817739196848</v>
       </c>
       <c r="G20">
-        <v>0.002399024565853565</v>
+        <v>0.0007728396220574246</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0325843835042221</v>
+        <v>0.01592669058570451</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7104820338388862</v>
+        <v>1.525912638659761</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.827760666289123</v>
+        <v>1.139967980008436</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.277155360411825</v>
+        <v>3.920560399778708</v>
       </c>
       <c r="C21">
-        <v>0.2936416445586758</v>
+        <v>0.8851658175701687</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.541059955582412</v>
+        <v>0.4878028346879262</v>
       </c>
       <c r="F21">
-        <v>1.999806696892733</v>
+        <v>1.81304624333761</v>
       </c>
       <c r="G21">
-        <v>0.00239577902983915</v>
+        <v>0.0007671472928995678</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03212637976192667</v>
+        <v>0.01521772772948715</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7657591311773047</v>
+        <v>1.722405819435224</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.812194681547936</v>
+        <v>1.224435843797863</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.36557413504039</v>
+        <v>4.212333287501679</v>
       </c>
       <c r="C22">
-        <v>0.3130088164789981</v>
+        <v>0.9462352366331857</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5467361005835727</v>
+        <v>0.5178191997332604</v>
       </c>
       <c r="F22">
-        <v>2.012775985482207</v>
+        <v>1.924342136719531</v>
       </c>
       <c r="G22">
-        <v>0.002393736064394901</v>
+        <v>0.0007634771691590147</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03184611507586332</v>
+        <v>0.01481549382831027</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.801976521579931</v>
+        <v>1.851990552947612</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.803722978724949</v>
+        <v>1.286775126774785</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.31839631076565</v>
+        <v>4.056420045622929</v>
       </c>
       <c r="C23">
-        <v>0.3026777667369913</v>
+        <v>0.9136089363991289</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5436900988525863</v>
+        <v>0.5017353926655375</v>
       </c>
       <c r="F23">
-        <v>2.005746486330693</v>
+        <v>1.864491573564891</v>
       </c>
       <c r="G23">
-        <v>0.002394819301262959</v>
+        <v>0.0007654316726271066</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03199395245387926</v>
+        <v>0.01502432384005914</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7826384834946509</v>
+        <v>1.782711824981689</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.808088252525692</v>
+        <v>1.252810543550595</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.139440848167055</v>
+        <v>3.469723678749176</v>
       </c>
       <c r="C24">
-        <v>0.2634300161944907</v>
+        <v>0.7906896090557893</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5325173923526663</v>
+        <v>0.4421444146891247</v>
       </c>
       <c r="F24">
-        <v>1.981482683386048</v>
+        <v>1.64722189011863</v>
       </c>
       <c r="G24">
-        <v>0.002399078937053293</v>
+        <v>0.0007729335665486913</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03259219112588063</v>
+        <v>0.01593925457245682</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7095801229554866</v>
+        <v>1.522718511148739</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.828043689655402</v>
+        <v>1.13869920857357</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9458638229712619</v>
+        <v>2.842967328220652</v>
       </c>
       <c r="C25">
-        <v>0.2208498121540288</v>
+        <v>0.6591051908790178</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5212441459287334</v>
+        <v>0.3802714939726144</v>
       </c>
       <c r="F25">
-        <v>1.960329322434745</v>
+        <v>1.430116581705889</v>
       </c>
       <c r="G25">
-        <v>0.00240401146087202</v>
+        <v>0.0007812669682360337</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03331930693701857</v>
+        <v>0.01716452669453794</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6311794773176302</v>
+        <v>1.246312410998272</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.856819688444347</v>
+        <v>1.042487964006938</v>
       </c>
     </row>
   </sheetData>
